--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S13/S13_lossmod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S13/S13_lossmod.xlsx
@@ -14,156 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.015842461544143604</t>
-  </si>
-  <si>
-    <t>0.02459582608339118</t>
-  </si>
-  <si>
-    <t>0.03755445384893673</t>
-  </si>
-  <si>
-    <t>0.059883597143204126</t>
-  </si>
-  <si>
-    <t>0.09043390023443593</t>
-  </si>
-  <si>
-    <t>0.1473632943257157</t>
-  </si>
-  <si>
-    <t>0.22871598213472938</t>
-  </si>
-  <si>
-    <t>0.3435747201387784</t>
-  </si>
-  <si>
-    <t>0.5598038616624387</t>
-  </si>
-  <si>
-    <t>0.8546754507952206</t>
-  </si>
-  <si>
-    <t>1.3706971966489092</t>
-  </si>
-  <si>
-    <t>2.0935181781132814</t>
-  </si>
-  <si>
-    <t>3.3583852979470707</t>
-  </si>
-  <si>
-    <t>5.213184919543556</t>
-  </si>
-  <si>
-    <t>8.363547485493113</t>
-  </si>
-  <si>
-    <t>13.20004670517704</t>
-  </si>
-  <si>
-    <t>20.16781578229652</t>
-  </si>
-  <si>
-    <t>32.36222902803676</t>
-  </si>
-  <si>
-    <t>50.26903433660952</t>
-  </si>
-  <si>
-    <t>79.35726353761783</t>
-  </si>
-  <si>
-    <t>123.27987085575155</t>
-  </si>
-  <si>
-    <t>191.51464728223525</t>
-  </si>
-  <si>
-    <t>302.37707129567093</t>
-  </si>
-  <si>
-    <t>447.381657906148</t>
-  </si>
-  <si>
-    <t>958.8467053235241</t>
-  </si>
-  <si>
-    <t>1156.069995939688</t>
-  </si>
-  <si>
-    <t>1488.08403517929</t>
-  </si>
-  <si>
-    <t>1969.9635745885398</t>
-  </si>
-  <si>
-    <t>2591.661107543924</t>
-  </si>
-  <si>
-    <t>3497.2691965730064</t>
-  </si>
-  <si>
-    <t>4469.813414075117</t>
-  </si>
-  <si>
-    <t>5713.379838305641</t>
-  </si>
-  <si>
-    <t>7859.464855541248</t>
-  </si>
-  <si>
-    <t>10273.431405092997</t>
-  </si>
-  <si>
-    <t>12837.839864805534</t>
-  </si>
-  <si>
-    <t>15563.746452951882</t>
-  </si>
-  <si>
-    <t>18494.55792315881</t>
-  </si>
-  <si>
-    <t>22962.077092816246</t>
-  </si>
-  <si>
-    <t>26882.551244433787</t>
-  </si>
-  <si>
-    <t>31630.66421269354</t>
-  </si>
-  <si>
-    <t>35909.111718378794</t>
-  </si>
-  <si>
-    <t>40357.31746601961</t>
-  </si>
-  <si>
-    <t>44071.69471935107</t>
-  </si>
-  <si>
-    <t>49581.141038474576</t>
-  </si>
-  <si>
-    <t>53113.50355851482</t>
-  </si>
-  <si>
-    <t>56788.24928133539</t>
-  </si>
-  <si>
-    <t>62190.86655980626</t>
-  </si>
-  <si>
-    <t>63810.88785782281</t>
+    <t>Loss modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -536,195 +392,195 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
+      <c r="A2">
+        <v>0.0158424615441436</v>
+      </c>
+      <c r="B2">
+        <v>958.8467053235241</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+      <c r="A3">
+        <v>0.02459582608339118</v>
+      </c>
+      <c r="B3">
+        <v>1156.069995939688</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
+      <c r="A4">
+        <v>0.03755445384893673</v>
+      </c>
+      <c r="B4">
+        <v>1488.08403517929</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
+      <c r="A5">
+        <v>0.05988359714320413</v>
+      </c>
+      <c r="B5">
+        <v>1969.96357458854</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
+      <c r="A6">
+        <v>0.09043390023443593</v>
+      </c>
+      <c r="B6">
+        <v>2591.661107543924</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
+      <c r="A7">
+        <v>0.1473632943257157</v>
+      </c>
+      <c r="B7">
+        <v>3497.269196573006</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
+      <c r="A8">
+        <v>0.2287159821347294</v>
+      </c>
+      <c r="B8">
+        <v>4469.813414075117</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
+      <c r="A9">
+        <v>0.3435747201387784</v>
+      </c>
+      <c r="B9">
+        <v>5713.379838305641</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
+      <c r="A10">
+        <v>0.5598038616624387</v>
+      </c>
+      <c r="B10">
+        <v>7859.464855541248</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
+      <c r="A11">
+        <v>0.8546754507952206</v>
+      </c>
+      <c r="B11">
+        <v>10273.431405093</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+      <c r="A12">
+        <v>1.370697196648909</v>
+      </c>
+      <c r="B12">
+        <v>12837.83986480553</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
+      <c r="A13">
+        <v>2.093518178113281</v>
+      </c>
+      <c r="B13">
+        <v>15563.74645295188</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
+      <c r="A14">
+        <v>3.358385297947071</v>
+      </c>
+      <c r="B14">
+        <v>18494.55792315881</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
+      <c r="A15">
+        <v>5.213184919543556</v>
+      </c>
+      <c r="B15">
+        <v>22962.07709281625</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
+      <c r="A16">
+        <v>8.363547485493113</v>
+      </c>
+      <c r="B16">
+        <v>26882.55124443379</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
+      <c r="A17">
+        <v>13.20004670517704</v>
+      </c>
+      <c r="B17">
+        <v>31630.66421269354</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
+      <c r="A18">
+        <v>20.16781578229652</v>
+      </c>
+      <c r="B18">
+        <v>35909.11171837879</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
+      <c r="A19">
+        <v>32.36222902803676</v>
+      </c>
+      <c r="B19">
+        <v>40357.31746601961</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
+      <c r="A20">
+        <v>50.26903433660952</v>
+      </c>
+      <c r="B20">
+        <v>44071.69471935107</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
+      <c r="A21">
+        <v>79.35726353761783</v>
+      </c>
+      <c r="B21">
+        <v>49581.14103847458</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
+      <c r="A22">
+        <v>123.2798708557516</v>
+      </c>
+      <c r="B22">
+        <v>53113.50355851482</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
+      <c r="A23">
+        <v>191.5146472822352</v>
+      </c>
+      <c r="B23">
+        <v>56788.24928133539</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
+      <c r="A24">
+        <v>302.3770712956709</v>
+      </c>
+      <c r="B24">
+        <v>62190.86655980626</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
+      <c r="A25">
+        <v>447.381657906148</v>
+      </c>
+      <c r="B25">
+        <v>63810.88785782281</v>
       </c>
     </row>
   </sheetData>
